--- a/2025-10-14/14_combined_confidence.xlsx
+++ b/2025-10-14/14_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Morocco  - Republic of the Congo: 20:00</t>
+          <t>Morocco ✓ - Republic of the Congo: 1:0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
         <v>80</v>
@@ -491,55 +491,256 @@
       <c r="F2" t="n">
         <v>1.04</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo  - Sudan: 20:00</t>
+          <t>Latvia - England ✓: 0:5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>England</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
-      </c>
-      <c r="E3" t="n">
-        <v>73</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1.05</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ivory Coast  - Kenya: 20:00</t>
+          <t>Spain ✓ - Bulgaria: 4:0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Portugal  - Hungary: 2:2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95</v>
+      </c>
+      <c r="E5" t="n">
+        <v>97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Senegal ✓ - Mauritania: 4:0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Italy ✓ - Israel: 3:0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Democratic Republic of the Congo ✓ - Sudan: 1:0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Democratic Republic of the Congo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>73</v>
+      </c>
+      <c r="D8" t="n">
+        <v>79</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ivory Coast ✓ - Kenya: 3:0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
         <v>1.11</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gabon ✓ - Burundi: 2:0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>73</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Turkiye ✓ - Georgia: 4:1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Turkiye</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>85</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
